--- a/TestSuites/Automation_Demo.xlsx
+++ b/TestSuites/Automation_Demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Framework\TestSuites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD3CDDC-05AC-4464-ACBF-4370CA4FB3D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0073DA6-E98E-438F-9729-6ACAE776E964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>USER</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Verify the data movement between Specialist and managers</t>
   </si>
   <si>
-    <t>\MobilePOC\Verify the data movement between Specialist and managers.xlsx</t>
-  </si>
-  <si>
     <t>mpentakota@aapnainfotech.com,xyx</t>
   </si>
   <si>
@@ -102,7 +99,22 @@
     <t>Creation of new Order in CXChoice Application</t>
   </si>
   <si>
-    <t>\CXChoice\Creation of new Order in CXChoice Application.xlsx</t>
+    <t>\Automation_Demo\Creation of new Order in CXChoice Application.xlsx</t>
+  </si>
+  <si>
+    <t>\Automation_Demo\Verify the data movement between Specialist and managers.xlsx</t>
+  </si>
+  <si>
+    <t>\Automation_Demo\Creation of new Order negative Scenario.xlsx</t>
+  </si>
+  <si>
+    <t>\Automation_Demo\SSS_API_GET.xlsx</t>
+  </si>
+  <si>
+    <t>SSS_API_GET</t>
+  </si>
+  <si>
+    <t>Creation of new Order negative Scenario</t>
   </si>
 </sst>
 </file>
@@ -593,16 +605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.90625" customWidth="1"/>
   </cols>
@@ -612,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="10"/>
     </row>
@@ -621,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
     </row>
@@ -630,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -648,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>44354</v>
+        <v>44371</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -684,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -693,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11"/>
     </row>
@@ -718,10 +730,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -732,10 +744,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -746,15 +758,43 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TestSuites/Automation_Demo.xlsx
+++ b/TestSuites/Automation_Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Framework\TestSuites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\GitRepository\Hybrid_Automation\TestSuites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0073DA6-E98E-438F-9729-6ACAE776E964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C11D31-8E12-4CC9-A256-376202F94DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestSuites/Automation_Demo.xlsx
+++ b/TestSuites/Automation_Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\GitRepository\Hybrid_Automation\TestSuites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C11D31-8E12-4CC9-A256-376202F94DA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A52A2-45C4-4B79-A270-65758BB3F4A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
